--- a/Практические задания/Дискр_2_семестр/Laboratornaja_7.xlsx
+++ b/Практические задания/Дискр_2_семестр/Laboratornaja_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>I</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>d(3,4)=min{d(3,4), d(3,5)+d(5,4)}=d(3,4)</t>
+  </si>
+  <si>
+    <t>d(4,1)=min{d(4,1), d(4,5)+d(5,1)}=d(4,1)</t>
+  </si>
+  <si>
+    <t>d(4,2)=min{d(4,2), d(4,5)+d(5,2)}=d(4,2)</t>
+  </si>
+  <si>
+    <t>d(4,3)=min{d(4,3), d(4,5)+d(5,3)}=d(4,3)</t>
   </si>
 </sst>
 </file>
@@ -641,35 +650,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -681,32 +663,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,6 +677,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -732,23 +697,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,17 +736,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -779,6 +779,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1440,6 +1449,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>96699</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>14209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>199572</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15385545" y="9724824"/>
+          <a:ext cx="1934604" cy="1554044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1730,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="M32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1743,22 +1790,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="76" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="78"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
       <c r="M1" s="23"/>
       <c r="T1" s="14"/>
       <c r="U1" s="14"/>
@@ -1769,12 +1816,12 @@
       <c r="AH1" s="18"/>
     </row>
     <row r="2" spans="1:34" ht="18.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,21 +1841,21 @@
         <v>5</v>
       </c>
       <c r="M2" s="18"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
       <c r="Y2" s="14"/>
       <c r="AH2" s="18"/>
     </row>
     <row r="3" spans="1:34" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="3">
         <v>1</v>
       </c>
@@ -1824,14 +1871,14 @@
         <v>2</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="S3" s="54" t="s">
+      <c r="S3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="40"/>
       <c r="Y3" s="14"/>
       <c r="AH3" s="18"/>
     </row>
@@ -1851,12 +1898,12 @@
         <v>9</v>
       </c>
       <c r="M4" s="23"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="38"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="43"/>
       <c r="Y4" s="14"/>
       <c r="AH4" s="18"/>
     </row>
@@ -1874,12 +1921,12 @@
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="23"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="60"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="46"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
       <c r="AH5" s="18"/>
@@ -1925,14 +1972,14 @@
       <c r="AH7" s="18"/>
     </row>
     <row r="8" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="27"/>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
@@ -2079,14 +2126,14 @@
       <c r="AH14" s="18"/>
     </row>
     <row r="15" spans="1:34" ht="19" customHeight="1" thickTop="1" thickBot="1">
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="75"/>
       <c r="M15" s="27"/>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
@@ -2233,28 +2280,28 @@
       <c r="AH21" s="18"/>
     </row>
     <row r="22" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="G22" s="76" t="s">
+      <c r="G22" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="75"/>
       <c r="M22" s="27"/>
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="28"/>
-      <c r="S22" s="46" t="s">
+      <c r="S22" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="41"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="32"/>
       <c r="Y22" s="28"/>
       <c r="Z22" s="28"/>
       <c r="AA22" s="28"/>
@@ -2286,14 +2333,14 @@
         <v>5</v>
       </c>
       <c r="M23" s="18"/>
-      <c r="S23" s="49" t="s">
+      <c r="S23" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="43"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="34"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AH23" s="18"/>
@@ -2314,19 +2361,19 @@
         <v>2</v>
       </c>
       <c r="M24" s="23"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="X24" s="50" t="s">
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="X24" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="36"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="63"/>
       <c r="AH24" s="18"/>
     </row>
     <row r="25" spans="1:34" ht="18" customHeight="1">
@@ -2345,18 +2392,18 @@
         <v>9</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="37"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="66"/>
       <c r="AH25" s="18"/>
     </row>
     <row r="26" spans="1:34" ht="18" customHeight="1">
@@ -2373,22 +2420,22 @@
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="23"/>
-      <c r="S26" s="45" t="s">
+      <c r="S26" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="53"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="69"/>
       <c r="AH26" s="18"/>
     </row>
     <row r="27" spans="1:34" ht="18" customHeight="1">
@@ -2407,11 +2454,11 @@
         <v>4</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="S27" s="34"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="43"/>
+      <c r="S27" s="31"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="34"/>
       <c r="Y27" s="14"/>
       <c r="AH27" s="18"/>
     </row>
@@ -2437,22 +2484,22 @@
       </c>
       <c r="L28" s="21"/>
       <c r="M28" s="30"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
       <c r="Y28" s="14"/>
       <c r="AH28" s="18"/>
     </row>
     <row r="29" spans="1:34" ht="17.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="G29" s="76" t="s">
+      <c r="G29" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="78"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="75"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -2473,7 +2520,7 @@
       <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
       <c r="AF29" s="13"/>
-      <c r="AG29" s="65"/>
+      <c r="AG29" s="36"/>
       <c r="AH29" s="18"/>
     </row>
     <row r="30" spans="1:34" ht="18.5" thickTop="1" thickBot="1">
@@ -2517,13 +2564,13 @@
         <v>12</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="T31" s="67" t="s">
+      <c r="T31" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="68"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="54"/>
       <c r="Y31" s="14"/>
       <c r="AH31" s="18"/>
     </row>
@@ -2543,11 +2590,11 @@
         <v>7</v>
       </c>
       <c r="M32" s="23"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="73"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="57"/>
       <c r="Y32" s="14"/>
       <c r="AH32" s="18"/>
     </row>
@@ -2567,11 +2614,11 @@
         <v>15</v>
       </c>
       <c r="M33" s="23"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="71"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="60"/>
       <c r="Y33" s="14"/>
       <c r="AH33" s="18"/>
     </row>
@@ -2610,14 +2657,14 @@
       <c r="AH35" s="18"/>
     </row>
     <row r="36" spans="7:34" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="G36" s="76" t="s">
+      <c r="G36" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="78"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="75"/>
       <c r="M36" s="27"/>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
@@ -2758,24 +2805,24 @@
       <c r="AH42" s="18"/>
     </row>
     <row r="43" spans="7:34" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="G43" s="76" t="s">
+      <c r="G43" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="78"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="75"/>
       <c r="M43" s="27"/>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
-      <c r="Q43" s="62" t="s">
+      <c r="Q43" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
       <c r="U43" s="28"/>
       <c r="V43" s="28"/>
       <c r="W43" s="28"/>
@@ -2811,19 +2858,19 @@
         <v>5</v>
       </c>
       <c r="M44" s="18"/>
-      <c r="Q44" s="61" t="s">
+      <c r="Q44" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="R44" s="61"/>
-      <c r="S44" s="61"/>
-      <c r="T44" s="61"/>
-      <c r="U44" s="64" t="s">
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="49"/>
+      <c r="X44" s="49"/>
+      <c r="Y44" s="49"/>
       <c r="AH44" s="18"/>
     </row>
     <row r="45" spans="7:34" ht="18">
@@ -2844,17 +2891,19 @@
         <v>12</v>
       </c>
       <c r="M45" s="23"/>
-      <c r="Q45" s="61" t="s">
+      <c r="Q45" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="61"/>
-      <c r="S45" s="61"/>
-      <c r="T45" s="61"/>
-      <c r="U45" s="64"/>
-      <c r="V45" s="64"/>
-      <c r="W45" s="64"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="64"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="V45" s="49"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
+      <c r="Y45" s="49"/>
       <c r="AH45" s="18"/>
     </row>
     <row r="46" spans="7:34" ht="18">
@@ -2873,13 +2922,19 @@
         <v>7</v>
       </c>
       <c r="M46" s="23"/>
-      <c r="Q46" s="61" t="s">
+      <c r="Q46" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61"/>
-      <c r="T46" s="61"/>
-      <c r="Y46" s="14"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
       <c r="AH46" s="18"/>
     </row>
     <row r="47" spans="7:34" ht="18">
@@ -2898,19 +2953,19 @@
         <v>15</v>
       </c>
       <c r="M47" s="23"/>
-      <c r="Q47" s="61" t="s">
+      <c r="Q47" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="R47" s="61"/>
-      <c r="S47" s="61"/>
-      <c r="T47" s="61"/>
-      <c r="U47" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="V47" s="64"/>
-      <c r="W47" s="64"/>
-      <c r="X47" s="64"/>
-      <c r="Y47" s="64"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="V47" s="49"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="49"/>
       <c r="AH47" s="18"/>
     </row>
     <row r="48" spans="7:34" ht="18">
@@ -2925,17 +2980,19 @@
       <c r="K48" s="7"/>
       <c r="L48" s="20"/>
       <c r="M48" s="23"/>
-      <c r="Q48" s="61" t="s">
+      <c r="Q48" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="R48" s="61"/>
-      <c r="S48" s="61"/>
-      <c r="T48" s="61"/>
-      <c r="U48" s="64"/>
-      <c r="V48" s="64"/>
-      <c r="W48" s="64"/>
-      <c r="X48" s="64"/>
-      <c r="Y48" s="64"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="V48" s="49"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
+      <c r="Y48" s="49"/>
       <c r="AH48" s="18"/>
     </row>
     <row r="49" spans="1:34" ht="18.5" thickBot="1">
@@ -2954,12 +3011,12 @@
       <c r="K49" s="10"/>
       <c r="L49" s="21"/>
       <c r="M49" s="29"/>
-      <c r="Q49" s="63" t="s">
+      <c r="Q49" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="R49" s="63"/>
-      <c r="S49" s="63"/>
-      <c r="T49" s="63"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
       <c r="Y49" s="14"/>
       <c r="AH49" s="18"/>
     </row>
@@ -3004,12 +3061,22 @@
       <c r="AG51" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
+    <mergeCell ref="U44:Y44"/>
+    <mergeCell ref="U46:Y46"/>
+    <mergeCell ref="U47:Y47"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G36:L36"/>
     <mergeCell ref="S3:X5"/>
     <mergeCell ref="Q48:T48"/>
     <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="U44:Y45"/>
-    <mergeCell ref="U47:Y48"/>
     <mergeCell ref="Q43:T43"/>
     <mergeCell ref="Q44:T44"/>
     <mergeCell ref="Q45:T45"/>
@@ -3019,15 +3086,8 @@
     <mergeCell ref="S26:W26"/>
     <mergeCell ref="T31:X33"/>
     <mergeCell ref="X24:AF26"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G36:L36"/>
     <mergeCell ref="S22:W22"/>
+    <mergeCell ref="U45:Y45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
